--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MaxDistance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Remarks</t>
         </is>
       </c>
@@ -501,7 +506,12 @@
           <t>6431</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,7 +544,12 @@
           <t>6525</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,7 +582,12 @@
           <t>7186</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -600,7 +620,12 @@
           <t>27645</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -635,6 +660,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>hmmm yes</t>
         </is>
       </c>
@@ -670,7 +700,12 @@
           <t>38463</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -703,7 +738,12 @@
           <t>2829</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -736,7 +776,12 @@
           <t>5343</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -769,7 +814,12 @@
           <t>1212</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -802,7 +852,12 @@
           <t>3918</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -835,7 +890,12 @@
           <t>4705</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -868,7 +928,12 @@
           <t>7475</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -901,7 +966,12 @@
           <t>7268</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -934,7 +1004,12 @@
           <t>6385</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -967,7 +1042,12 @@
           <t>10458</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1000,7 +1080,12 @@
           <t>4989</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>14.7661</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>120.9342</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.7661</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>14.7653</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>120.9437</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14.7653</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>14.7535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>120.9533</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14.7535</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>14.7738</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>120.9785</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14.7738</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>14.7603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>120.9623</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14.7603</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>14.7911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>121.0077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14.7911</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>14.7465</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>120.941</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.7465</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>14.7774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>120.9595</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14.7774</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>14.7559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>120.9488</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>14.7559</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>14.7599</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>120.9464</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>14.7599</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>14.7833</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>120.9849</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14.7833</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>14.7813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>120.9868</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>14.7813</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>14.7789</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>120.9746</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>14.7789</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>14.784</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>120.9686</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14.784</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>14.7642</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>120.9556</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>14.7642</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>14.7649</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>120.9488</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.7649</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VulPop</t>
+          <t>AffectedPop</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -465,6 +465,11 @@
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MaxDistance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -473,39 +478,614 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DummyName</t>
+          <t>Abangan Norte</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>14.7661</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>120.9342</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>11417</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10080</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sample remarks</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abangan Sur</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14.7653</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120.9437</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10595</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9750</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6525</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ibayo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14.7535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>120.9533</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8310</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lambakin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14.7738</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>120.9785</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48184</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>27645</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lias</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14.7603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>120.9623</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15256</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8801</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hmmm yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Loma de Gato</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.7911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>121.0077</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71258</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>38463</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nagbalon</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14.7465</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>120.941</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4925</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Patubig</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14.7774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>120.9595</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5343</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Poblacion I</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14.7559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>120.9488</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Poblacion II</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14.7599</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>120.9464</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Prenza I</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14.7833</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>120.9849</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9019</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Prenza II</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14.7813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>120.9868</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13784</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7475</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Santa Rosa I</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14.7789</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>120.9746</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11260</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4995</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7268</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Santa Rosa II</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14.784</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>120.9686</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6385</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Saog</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14.7642</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>120.9556</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15612</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tabing Ilog</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.7649</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>120.9488</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8056</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,37 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abangan Norte</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.7661</t>
+          <t>14.8956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120.9342</t>
+          <t>120.7855</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11417</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10080</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6431</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -516,37 +516,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abangan Sur</t>
+          <t>Balungao</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.7653</t>
+          <t>14.9143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120.9437</t>
+          <t>120.7622</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10595</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -554,37 +554,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ibayo</t>
+          <t>Buguion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.7535</t>
+          <t>14.894</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120.9533</t>
+          <t>120.7985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>2196</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -592,37 +592,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lambakin</t>
+          <t>Bulusan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.7738</t>
+          <t>14.9076</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.9785</t>
+          <t>120.7455</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48184</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27645</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -630,79 +630,75 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lias</t>
+          <t>Calizon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.7603</t>
+          <t>14.9125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.9623</t>
+          <t>120.753</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15256</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>hmmm yes</t>
-        </is>
-      </c>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
+          <t>Calumpang</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.7911</t>
+          <t>14.8845</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>121.0077</t>
+          <t>120.7838</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71258</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38463</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -710,37 +706,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
+          <t>Caniogan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.7465</t>
+          <t>14.9054</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>120.941</t>
+          <t>120.7733</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4925</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -748,22 +744,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Patubig</t>
+          <t>Corazon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14.7774</t>
+          <t>14.9128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120.9595</t>
+          <t>120.7686</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8419</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -773,12 +769,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5343</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -786,37 +782,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>Frances</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.7559</t>
+          <t>14.9153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120.9488</t>
+          <t>120.7532</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -824,37 +820,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
+          <t>Gatbuca</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.7599</t>
+          <t>14.9218</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120.9464</t>
+          <t>120.7685</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4968</t>
+          <t>6384</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -862,37 +858,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Prenza I</t>
+          <t>Gugo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14.7833</t>
+          <t>14.9014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120.9849</t>
+          <t>120.7548</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9019</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -900,37 +896,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prenza II</t>
+          <t>Iba Este</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.7813</t>
+          <t>14.8899</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>120.9868</t>
+          <t>120.7673</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13784</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7475</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -938,37 +934,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
+          <t>Iba O'Este</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.7789</t>
+          <t>14.8919</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120.9746</t>
+          <t>120.7635</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11260</t>
+          <t>14085</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4995</t>
+          <t>601</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7268</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -976,37 +972,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Santa Rosa II</t>
+          <t>Longos</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.784</t>
+          <t>14.8748</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>120.9686</t>
+          <t>120.7866</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13378</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1014,37 +1010,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saog</t>
+          <t>Meysulao</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.7642</t>
+          <t>14.9078</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>120.9556</t>
+          <t>120.7397</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15612</t>
+          <t>4280</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10458</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1052,40 +1048,534 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tabing Ilog</t>
+          <t>Meyto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.7649</t>
+          <t>14.8831</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120.9488</t>
+          <t>120.7295</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8056</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Palimbang</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14.8994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>120.7756</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Panducot</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14.8761</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>120.738</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pio Cruzcosa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14.8881</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>120.7855</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.9157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>120.7672</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14.9023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>120.7914</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9528</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5486</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14.8838</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>120.7395</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5661</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14.8976</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>120.7797</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1471</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14.917</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>120.7427</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14.8982</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>120.736</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14.9047</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>120.7792</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14.9196</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>120.7739</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1775</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14.894</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>120.7909</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sucol</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14.9138</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>120.7701</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,37 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balite</t>
+          <t>Abangan Norte</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.8956</t>
+          <t>120.9342</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120.7855</t>
+          <t>14.7661</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>11417</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10080</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -516,37 +516,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Balungao</t>
+          <t>Abangan Sur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.9143</t>
+          <t>120.9437</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120.7622</t>
+          <t>14.7653</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>10595</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9750</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>6525</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -554,37 +554,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Buguion</t>
+          <t>Ibayo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.894</t>
+          <t>120.9533</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120.7985</t>
+          <t>14.7535</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2196</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -592,37 +592,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulusan</t>
+          <t>Lambakin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.9076</t>
+          <t>120.9785</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.7455</t>
+          <t>14.7738</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>48184</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>27645</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -630,75 +630,79 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calizon</t>
+          <t>Lias</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.9125</t>
+          <t>120.9623</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.753</t>
+          <t>14.7603</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>15256</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>8801</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hmmm yes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Calumpang</t>
+          <t>Loma de Gato</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.8845</t>
+          <t>121.0077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>120.7838</t>
+          <t>14.7911</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>71258</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>38463</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -706,37 +710,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Caniogan</t>
+          <t>Nagbalon</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.9054</t>
+          <t>120.941</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>120.7733</t>
+          <t>14.7465</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4925</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -744,22 +748,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Corazon</t>
+          <t>Patubig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14.9128</t>
+          <t>120.9595</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120.7686</t>
+          <t>14.7774</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2175</t>
+          <t>8419</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -769,12 +773,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>5343</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -782,37 +786,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Frances</t>
+          <t>Poblacion I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.9153</t>
+          <t>120.9488</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120.7532</t>
+          <t>14.7559</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -820,37 +824,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gatbuca</t>
+          <t>Poblacion II</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.9218</t>
+          <t>120.9464</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120.7685</t>
+          <t>14.7599</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6384</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -858,37 +862,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gugo</t>
+          <t>Prenza I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14.9014</t>
+          <t>120.9849</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120.7548</t>
+          <t>14.7833</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>9019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -896,37 +900,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Iba Este</t>
+          <t>Prenza II</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.8899</t>
+          <t>120.9868</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>120.7673</t>
+          <t>14.7813</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>13784</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>7475</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -934,37 +938,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Iba O'Este</t>
+          <t>Santa Rosa I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.8919</t>
+          <t>120.9746</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120.7635</t>
+          <t>14.7789</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14085</t>
+          <t>11260</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8095</t>
+          <t>7268</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -972,37 +976,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Longos</t>
+          <t>Santa Rosa II</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.8748</t>
+          <t>120.9686</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>120.7866</t>
+          <t>14.784</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4265</t>
+          <t>13378</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1010,37 +1014,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Meysulao</t>
+          <t>Saog</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.9078</t>
+          <t>120.9556</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>120.7397</t>
+          <t>14.7642</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4280</t>
+          <t>15612</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>10458</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1048,534 +1052,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Meyto</t>
+          <t>Tabing Ilog</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.8831</t>
+          <t>120.9488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120.7295</t>
+          <t>14.7649</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>8056</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>4989</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Palimbang</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>14.8994</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>120.7756</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1684</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1424</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Panducot</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>14.8761</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>120.738</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1713</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Pio Cruzcosa</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>14.8881</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>120.7855</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2899</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Poblacion</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>14.9157</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>120.7672</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1785</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1294</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pungo</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>14.9023</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>120.7914</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9528</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5486</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>San Jose</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>14.8838</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>120.7395</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5661</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>San Marcos</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>14.8976</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>120.7797</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2671</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1471</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>14.917</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>120.7427</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6005</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3287</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Santa Lucia</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>14.8982</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>120.736</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2460</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1483</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Santo Niño</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>14.9047</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>120.7792</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2544</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1392</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sapang Bayan</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>14.9196</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>120.7739</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1775</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sergio Bayan</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>14.894</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>120.7909</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1727</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1258</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sucol</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>14.9138</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>120.7701</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AffectedPop</t>
+          <t>VulPop</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -465,11 +465,6 @@
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MaxDistance</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -506,12 +501,7 @@
           <t>6431</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,12 +534,7 @@
           <t>6525</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -582,12 +567,7 @@
           <t>7186</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -620,12 +600,7 @@
           <t>27645</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -660,11 +635,6 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>hmmm yes</t>
         </is>
       </c>
@@ -700,12 +670,7 @@
           <t>38463</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -738,12 +703,7 @@
           <t>2829</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -776,12 +736,7 @@
           <t>5343</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -814,12 +769,7 @@
           <t>1212</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -852,12 +802,7 @@
           <t>3918</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -890,12 +835,7 @@
           <t>4705</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -928,12 +868,7 @@
           <t>7475</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -966,12 +901,7 @@
           <t>7268</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1004,12 +934,7 @@
           <t>6385</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1042,12 +967,7 @@
           <t>10458</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1080,12 +1000,7 @@
           <t>4989</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/commData.xlsx
+++ b/FE/commData.xlsx
@@ -670,7 +670,11 @@
           <t>38463</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
